--- a/참고자료/강좌서류/첨부 2. 재료 구입 신청리스트(양식).xlsx
+++ b/참고자료/강좌서류/첨부 2. 재료 구입 신청리스트(양식).xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\7.1 SW 중심대학(2019년-)\7. 실무중심산학협력프로젝트\1. 강의 진행 안내사항\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\2019-capstone\참고자료\강좌서류\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517A6DB1-EF83-4D1C-B467-B63ED7D1831D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11955"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="11955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="재료 구입 신청(양식)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>순번</t>
   </si>
@@ -48,57 +54,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>아답터 5V 3A</t>
-  </si>
-  <si>
-    <t>라즈베리파이 공식 7인치 터치스크린</t>
-  </si>
-  <si>
-    <t>Rev 1.1</t>
-  </si>
-  <si>
-    <t>초음파 거리 센서 모듈</t>
-  </si>
-  <si>
-    <t>아답터 플레이트</t>
-  </si>
-  <si>
-    <t>Premium Jumper Wire 50-Piece Rainbow Assortment</t>
-  </si>
-  <si>
-    <t>M-F 6'</t>
-  </si>
-  <si>
-    <t>초보자용 라즈베리파이3 스타터 키트</t>
-  </si>
-  <si>
-    <t>V2</t>
-  </si>
-  <si>
-    <t>진동센서 모듈</t>
-  </si>
-  <si>
-    <t>801S</t>
-  </si>
-  <si>
-    <t>6축 가속도/자이로 센서 모듈</t>
-  </si>
-  <si>
-    <t>OSTSen-6050</t>
-  </si>
-  <si>
-    <t>라즈베리파이3 기초 키트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>합계</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>A팀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>팀장 성명</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -123,26 +82,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>홍길동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-000-0000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hgd1234@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>소프트웨어학과</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>OOO 교수님</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>* 수업과 무관한 개인 물품 구입 신청은 불가함으로 개인 물품 구매를 포함시키지 말 것</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -156,10 +99,6 @@
   </si>
   <si>
     <t>팀원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍길동,이순신,장보고</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -204,18 +143,63 @@
     <t>금액</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>하이파이브</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박은영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-2315-4483</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bey4314@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박은영, 류다인, 김장현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박창섭 교수님</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipTIME NAS1 DUAL 1베이 하드미포함|[하드미포함]</t>
+  </si>
+  <si>
+    <t>ipTIME HDD3225 [2.5 외장케이스/USB3.1 Gen2] [블랙]</t>
+  </si>
+  <si>
+    <t>850 series 120GB MZ-7LN120BW</t>
+  </si>
+  <si>
+    <t>010-2315-4484</t>
+  </si>
+  <si>
+    <t>010-2315-4485</t>
+  </si>
+  <si>
+    <t>bey4315@naver.com</t>
+  </si>
+  <si>
+    <t>bey4316@naver.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,###,###,###"/>
     <numFmt numFmtId="177" formatCode="###,###,###,###.###"/>
     <numFmt numFmtId="178" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,6 +328,12 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -586,7 +576,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -733,6 +723,9 @@
     </xf>
     <xf numFmtId="41" fontId="7" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1015,11 +1008,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1042,7 +1035,7 @@
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B1" s="45" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>
@@ -1064,7 +1057,7 @@
     </row>
     <row r="3" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -1091,76 +1084,74 @@
         <v>4</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I4" s="32" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="K4" s="33" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="L4" s="33" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="M4" s="33" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="N4" s="33" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="O4" s="34" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="35">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="14"/>
       <c r="E5" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="17">
-        <v>75020</v>
+        <v>130900</v>
       </c>
       <c r="H5" s="17">
         <f>E5*G5</f>
-        <v>150040</v>
+        <v>130900</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M5" s="29" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="O5" s="36" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1168,85 +1159,101 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>9</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D6" s="21"/>
       <c r="E6" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="24">
-        <v>95150</v>
+        <v>15900</v>
       </c>
       <c r="H6" s="17">
         <f t="shared" ref="H6:H11" si="0">E6*G6</f>
-        <v>95150</v>
-      </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="36"/>
+        <v>31800</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="36" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="35">
         <v>3</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>11</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D7" s="21"/>
       <c r="E7" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="24">
-        <v>4510</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="17">
         <f t="shared" si="0"/>
-        <v>4510</v>
-      </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="36"/>
+        <v>120000</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="2:15" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="35">
         <v>4</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="22">
-        <v>1</v>
-      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="24">
-        <v>16368</v>
-      </c>
+      <c r="G8" s="24"/>
       <c r="H8" s="17">
         <f t="shared" si="0"/>
-        <v>16368</v>
+        <v>0</v>
       </c>
       <c r="I8" s="25"/>
       <c r="J8" s="19"/>
@@ -1260,24 +1267,16 @@
       <c r="B9" s="37">
         <v>5</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="22">
-        <v>1</v>
-      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="24">
-        <v>80300</v>
-      </c>
+      <c r="G9" s="24"/>
       <c r="H9" s="17">
         <f t="shared" si="0"/>
-        <v>80300</v>
+        <v>0</v>
       </c>
       <c r="I9" s="25"/>
       <c r="J9" s="19"/>
@@ -1291,24 +1290,16 @@
       <c r="B10" s="37">
         <v>6</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="22">
-        <v>1</v>
-      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="24">
-        <v>5500</v>
-      </c>
+      <c r="G10" s="24"/>
       <c r="H10" s="17">
         <f t="shared" si="0"/>
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="I10" s="25"/>
       <c r="J10" s="19"/>
@@ -1322,24 +1313,16 @@
       <c r="B11" s="35">
         <v>7</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="22">
-        <v>1</v>
-      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="24">
-        <v>40700</v>
-      </c>
+      <c r="G11" s="24"/>
       <c r="H11" s="17">
         <f t="shared" si="0"/>
-        <v>40700</v>
+        <v>0</v>
       </c>
       <c r="I11" s="25"/>
       <c r="J11" s="19"/>
@@ -1585,7 +1568,7 @@
     </row>
     <row r="25" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="46" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C25" s="47"/>
       <c r="D25" s="47"/>
@@ -1594,7 +1577,7 @@
       <c r="G25" s="48"/>
       <c r="H25" s="41">
         <f>SUM(H5:H24)</f>
-        <v>392568</v>
+        <v>282700</v>
       </c>
       <c r="I25" s="42"/>
       <c r="J25" s="43"/>
@@ -1606,17 +1589,17 @@
     </row>
     <row r="26" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="27" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C27" s="28" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C28" s="26" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
@@ -1624,7 +1607,7 @@
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1634,9 +1617,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L5" r:id="rId1"/>
+    <hyperlink ref="L5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L6:L7" r:id="rId2" display="bey4314@naver.com" xr:uid="{AAE2AD64-BF99-45A3-A88E-6B191CFFEB06}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/참고자료/강좌서류/첨부 2. 재료 구입 신청리스트(양식).xlsx
+++ b/참고자료/강좌서류/첨부 2. 재료 구입 신청리스트(양식).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\2019-capstone\참고자료\강좌서류\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517A6DB1-EF83-4D1C-B467-B63ED7D1831D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4393F057-7576-4FBB-BD97-A3D3AF9513E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="11955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="11955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="재료 구입 신청(양식)" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>순번</t>
   </si>
@@ -187,6 +187,1189 @@
   </si>
   <si>
     <t>bey4316@naver.com</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>ipTIME HDD3225</t>
+  </si>
+  <si>
+    <t>주요사항</t>
+  </si>
+  <si>
+    <t>White, Silver, Black 3Color</t>
+  </si>
+  <si>
+    <t>Drive Type</t>
+  </si>
+  <si>
+    <t>S-ATA(S-ATA 3) 2.5" Hard Disk</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>USB3.1 Gen2</t>
+  </si>
+  <si>
+    <t>Transfer Rate</t>
+  </si>
+  <si>
+    <t>10Gbps(USB3.1 Gen2)</t>
+  </si>
+  <si>
+    <t>본체 크기 / 무게</t>
+  </si>
+  <si>
+    <t>패키지 크기 / 무게</t>
+  </si>
+  <si>
+    <t>168 x 116 x 56 mm / 200g (제품 포장, 본체 및 구성품 전체의 무게 포함)</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Windows XP / Vista / 7 / 8 / 8.1 / 10 / Mac O</t>
+  </si>
+  <si>
+    <t>순번 1 규격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>순번 2 규격</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5인치 USB3.1 Gen2 Type-C외장하드 케이스 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safe Parking 기능 탑재 </t>
+  </si>
+  <si>
+    <t>순번 3 규격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">	DC In, 100/1000Mbps LAN x2, USB 3.0 x1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">	Power, RST, USB Copy
+LED	Power, Ready, LAN1, LAN2, HDD, USB
+CPU	Marvell 88F6820 Dual Core CPU (1.6GHz)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메모리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">	2Gbytes (DDR3 DRAM)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하드디스크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">	8.9Cm (3.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t>), 6.4Cm (2.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) SATA HDD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> USB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디스크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">	NTFS / FAT32 / exFAT / EXT3 / EXT4
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>패키지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">	236 x 233 x 98 mm / 1478g 
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>본체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구성품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포함</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, HDD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미포함</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최대소비전력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">	42W
+ (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최저소비효율기준</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만족제품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)
+OS	Windows XP, 7, 8, 8.1, 10, Linux, Mac OS
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">	Power, RST, USB Copy
+LED	Power, Ready, LAN1, LAN2, HDD, USB
+CPU	Marvell 88F6820 Dual Core CPU (1.6GHz)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메모리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">	2Gbytes (DDR3 DRAM)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하드디스크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">	8.9Cm (3.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t>), 6.4Cm (2.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) SATA HDD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> USB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디스크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">	NTFS / FAT32 / exFAT / EXT3 / EXT4
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>본체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">	140 x 205 x 61 mm / 884g (HDD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미포함</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>패키지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">	236 x 233 x 98 mm / 1478g 
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>본체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구성품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포함</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, HDD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미포함</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최대소비전력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">	42W
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">	12V </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>외장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어댑터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최저소비효율기준</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만족제품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)
+OS	Windows XP, 7, 8, 8.1, 10, Linux, Mac OS
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>140 x 205 x 61 mm / 884g (HDD 미포함) / 전원12V 외장 어댑터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>78 x 129 x 14.5 (mm) / 68g / 전원 USB Power</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100*69.85*6.8mm / 55g</t>
+  </si>
+  <si>
+    <t>EA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -199,7 +1382,7 @@
     <numFmt numFmtId="177" formatCode="###,###,###,###.###"/>
     <numFmt numFmtId="178" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,6 +1517,33 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Verdana"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Verdana"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -576,7 +1786,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -619,9 +1829,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -712,6 +1919,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -724,8 +1934,11 @@
     <xf numFmtId="41" fontId="7" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -744,6 +1957,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2386852</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>212911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>99171</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>7606</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5DED2BE-C477-4DFE-B68F-70C484820CE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2980764" y="15441705"/>
+          <a:ext cx="5961529" cy="5543313"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1009,18 +2271,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O29"/>
+  <dimension ref="B1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.75" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="31.25" customWidth="1"/>
-    <col min="4" max="4" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="47.75" customWidth="1"/>
+    <col min="4" max="4" width="51" customWidth="1"/>
     <col min="5" max="5" width="4.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.875" customWidth="1"/>
@@ -1059,281 +2321,287 @@
       <c r="B3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" spans="2:15" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="M4" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="33" t="s">
+      <c r="N4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="O4" s="33" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="35">
+      <c r="B5" s="34">
         <v>1</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15">
+      <c r="D5" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="14">
         <v>1</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="17">
+      <c r="F5" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="16">
         <v>130900</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="16">
         <f>E5*G5</f>
         <v>130900</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="M5" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="36" t="s">
+      <c r="O5" s="35" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="37">
+      <c r="B6" s="36">
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22">
+      <c r="D6" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="21">
         <v>2</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="23">
         <v>15900</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="16">
         <f t="shared" ref="H6:H11" si="0">E6*G6</f>
         <v>31800</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="29" t="s">
+      <c r="M6" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="36" t="s">
+      <c r="O6" s="35" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="35">
+      <c r="B7" s="34">
         <v>3</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22">
+      <c r="D7" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="21">
         <v>2</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="23">
         <v>60000</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="16">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="29" t="s">
+      <c r="M7" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="N7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="36" t="s">
+      <c r="O7" s="35" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:15" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="35">
+      <c r="B8" s="34">
         <v>4</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="17">
+      <c r="G8" s="23"/>
+      <c r="H8" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="36"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="35"/>
     </row>
     <row r="9" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="37">
+      <c r="B9" s="36">
         <v>5</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="17">
+      <c r="G9" s="23"/>
+      <c r="H9" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="36"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="35"/>
     </row>
     <row r="10" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="37">
+      <c r="B10" s="36">
         <v>6</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23" t="s">
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="17">
+      <c r="G10" s="23"/>
+      <c r="H10" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="36"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="35"/>
     </row>
     <row r="11" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="35">
+      <c r="B11" s="34">
         <v>7</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="17">
+      <c r="G11" s="23"/>
+      <c r="H11" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="36"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="35"/>
     </row>
     <row r="12" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="38">
+      <c r="B12" s="37">
         <v>8</v>
       </c>
       <c r="C12" s="5"/>
@@ -1348,10 +2616,10 @@
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
-      <c r="O12" s="39"/>
+      <c r="O12" s="38"/>
     </row>
     <row r="13" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="40">
+      <c r="B13" s="39">
         <v>9</v>
       </c>
       <c r="C13" s="5"/>
@@ -1366,10 +2634,10 @@
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
-      <c r="O13" s="39"/>
+      <c r="O13" s="38"/>
     </row>
     <row r="14" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="38">
+      <c r="B14" s="37">
         <v>10</v>
       </c>
       <c r="C14" s="5"/>
@@ -1384,10 +2652,10 @@
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
-      <c r="O14" s="39"/>
+      <c r="O14" s="38"/>
     </row>
     <row r="15" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="40">
+      <c r="B15" s="39">
         <v>11</v>
       </c>
       <c r="C15" s="5"/>
@@ -1402,10 +2670,10 @@
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
-      <c r="O15" s="39"/>
+      <c r="O15" s="38"/>
     </row>
     <row r="16" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="38">
+      <c r="B16" s="37">
         <v>12</v>
       </c>
       <c r="C16" s="5"/>
@@ -1420,10 +2688,10 @@
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
-      <c r="O16" s="39"/>
+      <c r="O16" s="38"/>
     </row>
     <row r="17" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="40">
+      <c r="B17" s="39">
         <v>13</v>
       </c>
       <c r="C17" s="5"/>
@@ -1438,10 +2706,10 @@
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
-      <c r="O17" s="39"/>
+      <c r="O17" s="38"/>
     </row>
     <row r="18" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="38">
+      <c r="B18" s="37">
         <v>14</v>
       </c>
       <c r="C18" s="5"/>
@@ -1456,10 +2724,10 @@
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
-      <c r="O18" s="39"/>
+      <c r="O18" s="38"/>
     </row>
     <row r="19" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="38">
+      <c r="B19" s="37">
         <v>15</v>
       </c>
       <c r="C19" s="5"/>
@@ -1474,10 +2742,10 @@
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
-      <c r="O19" s="39"/>
+      <c r="O19" s="38"/>
     </row>
     <row r="20" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="38">
+      <c r="B20" s="37">
         <v>16</v>
       </c>
       <c r="C20" s="5"/>
@@ -1492,10 +2760,10 @@
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
-      <c r="O20" s="39"/>
+      <c r="O20" s="38"/>
     </row>
     <row r="21" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="38">
+      <c r="B21" s="37">
         <v>17</v>
       </c>
       <c r="C21" s="5"/>
@@ -1510,10 +2778,10 @@
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
-      <c r="O21" s="39"/>
+      <c r="O21" s="38"/>
     </row>
     <row r="22" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="38">
+      <c r="B22" s="37">
         <v>18</v>
       </c>
       <c r="C22" s="5"/>
@@ -1528,10 +2796,10 @@
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
-      <c r="O22" s="39"/>
+      <c r="O22" s="38"/>
     </row>
     <row r="23" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="38">
+      <c r="B23" s="37">
         <v>19</v>
       </c>
       <c r="C23" s="5"/>
@@ -1546,10 +2814,10 @@
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
-      <c r="O23" s="39"/>
+      <c r="O23" s="38"/>
     </row>
     <row r="24" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="40">
+      <c r="B24" s="39">
         <v>20</v>
       </c>
       <c r="C24" s="2"/>
@@ -1564,7 +2832,7 @@
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
-      <c r="O24" s="39"/>
+      <c r="O24" s="38"/>
     </row>
     <row r="25" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="46" t="s">
@@ -1575,45 +2843,146 @@
       <c r="E25" s="47"/>
       <c r="F25" s="47"/>
       <c r="G25" s="48"/>
-      <c r="H25" s="41">
+      <c r="H25" s="40">
         <f>SUM(H5:H24)</f>
         <v>282700</v>
       </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="44"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="43"/>
     </row>
     <row r="26" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="26" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="27" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="32" spans="2:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:I2"/>
     <mergeCell ref="B25:G25"/>
+    <mergeCell ref="D32:L32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -1622,5 +2991,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>